--- a/Spine_Projects/01_input_data/01_input_raw/methanol/Investment_cost_overview.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/Investment_cost_overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3DEB54C6-74C1-4119-9ED3-44BA168EF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9779DB35-EC5E-425C-9FFF-3C2F9BF762D6}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{3DEB54C6-74C1-4119-9ED3-44BA168EF897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9DE5E4-F8E5-424E-8AAC-3D67236CBB04}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B319F6F4-5B26-4633-9938-205A8FCCCA95}"/>
   </bookViews>
@@ -16,6 +16,38 @@
     <sheet name="Investment_Cost" sheetId="1" r:id="rId1"/>
     <sheet name="Sources" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_MTD" hidden="1">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">45429.7589699074</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_QTD" hidden="1">750000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PV_plant</t>
   </si>
@@ -85,6 +117,18 @@
   </si>
   <si>
     <t>Investment_Cost [Euro/MW or MWh] Value 2040</t>
+  </si>
+  <si>
+    <t>Hydrogen_pipeline</t>
+  </si>
+  <si>
+    <t>Power_line</t>
+  </si>
+  <si>
+    <t>Heat_pipeline</t>
+  </si>
+  <si>
+    <t>Methanol_pipeline</t>
   </si>
 </sst>
 </file>
@@ -472,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FABD746-4A8E-4371-B5EF-19107F5A398A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,6 +728,86 @@
       </c>
       <c r="F10" s="3">
         <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
